--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/179.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/179.xlsx
@@ -479,13 +479,13 @@
         <v>-2.658722952555618</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.7161307847216</v>
+        <v>-14.69952974471829</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.05364187858164378</v>
+        <v>-0.06754590419955686</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.1984777649038</v>
+        <v>-11.1763255884956</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-2.811568833415997</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.86847282058793</v>
+        <v>-14.85349522613699</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01744932584892877</v>
+        <v>0.001660008621807131</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.9031285050973</v>
+        <v>-10.88245575891022</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-2.927289974568295</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.23164020911457</v>
+        <v>-15.21524864595673</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05357098938925099</v>
+        <v>0.03903853323493506</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.54017059341613</v>
+        <v>-10.51769110943689</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.990555223739016</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.74319575804933</v>
+        <v>-15.72519384164196</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1836037412132743</v>
+        <v>0.1669503319985987</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.3548490466915</v>
+        <v>-10.33138763999913</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.999050518569045</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.22944388559104</v>
+        <v>-16.21018510811086</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1740856370473395</v>
+        <v>0.1582177660031674</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.19734864350553</v>
+        <v>-10.17291840640287</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.951834792985862</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.8036591959263</v>
+        <v>-16.78137609648968</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3145005850248515</v>
+        <v>0.2938147465349243</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.04948417521108</v>
+        <v>-10.02525032265105</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.848809959741741</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.39256407004998</v>
+        <v>-17.36771487925638</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4619068227198453</v>
+        <v>0.4433550295931195</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.843948112898822</v>
+        <v>-9.819805906458679</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.692988765216979</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.12331095316092</v>
+        <v>-18.09516250205121</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7423177649839343</v>
+        <v>0.7213438958314891</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.88116952987785</v>
+        <v>-9.856621462049613</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.487613752110692</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.60821057350993</v>
+        <v>-18.57815064618532</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7813721043608032</v>
+        <v>0.7629905111710197</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.533870012395381</v>
+        <v>-9.510330051885958</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-2.238116028903073</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.2149340718012</v>
+        <v>-19.18253062226793</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9068618270987475</v>
+        <v>0.8885064185146475</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.487654183364089</v>
+        <v>-9.463184669352902</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.954624645233064</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.76272911500186</v>
+        <v>-19.72952703499524</v>
       </c>
       <c r="F12" t="n">
-        <v>1.067897152051978</v>
+        <v>1.047132759745001</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.996522626862419</v>
+        <v>-8.97172580528019</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.645441525415958</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.57724055169416</v>
+        <v>-20.54242811843801</v>
       </c>
       <c r="F13" t="n">
-        <v>1.254318452215316</v>
+        <v>1.232022260475856</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.508114269351827</v>
+        <v>-8.480214571996109</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.325327884993982</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.40941350491995</v>
+        <v>-21.37437850251549</v>
       </c>
       <c r="F14" t="n">
-        <v>1.57785544004005</v>
+        <v>1.553032433852138</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.056050144529868</v>
+        <v>-8.024340587047208</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.00235980833997</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.23384890716629</v>
+        <v>-22.19794981277427</v>
       </c>
       <c r="F15" t="n">
-        <v>1.691941767002851</v>
+        <v>1.666097561193284</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.61915999870147</v>
+        <v>-7.584111903994168</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.6855360631318745</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.09016406683222</v>
+        <v>-23.0552338028505</v>
       </c>
       <c r="F16" t="n">
-        <v>1.971383878856652</v>
+        <v>1.94451847342543</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.037822475620307</v>
+        <v>-7.005314287664302</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.3786455048506894</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.70237324001418</v>
+        <v>-23.66826779111148</v>
       </c>
       <c r="F17" t="n">
-        <v>2.162348208106069</v>
+        <v>2.135037664378228</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.952552307212145</v>
+        <v>-6.918931273514593</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.08391912194199924</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.51575873866209</v>
+        <v>-24.48067136704626</v>
       </c>
       <c r="F18" t="n">
-        <v>2.581537560492454</v>
+        <v>2.551294340928067</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.551404148141659</v>
+        <v>-6.517874760563998</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.1936081671470389</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.36775343839026</v>
+        <v>-25.3310557135249</v>
       </c>
       <c r="F19" t="n">
-        <v>2.847180385151076</v>
+        <v>2.816518211895754</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.246641522591959</v>
+        <v>-6.214683211355306</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4488435455388103</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.12095362087476</v>
+        <v>-26.08420352679803</v>
       </c>
       <c r="F20" t="n">
-        <v>3.068937810684232</v>
+        <v>3.038328006640277</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.138040870519841</v>
+        <v>-6.102194145339195</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6680163062137326</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.70513217367257</v>
+        <v>-26.66823806426459</v>
       </c>
       <c r="F21" t="n">
-        <v>3.385326401157384</v>
+        <v>3.355921088974867</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.805273809191689</v>
+        <v>-5.771809883128238</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.836125499238045</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.29183754091884</v>
+        <v>-27.25462921624266</v>
       </c>
       <c r="F22" t="n">
-        <v>3.588859341134858</v>
+        <v>3.562046304915003</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.663811476986839</v>
+        <v>-5.625909260260043</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.9345714582924994</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.73731623741142</v>
+        <v>-27.70178372749897</v>
       </c>
       <c r="F23" t="n">
-        <v>3.771051827480318</v>
+        <v>3.744683929557081</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.463499243508431</v>
+        <v>-5.427037180094223</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.9491321989036242</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.96720398300928</v>
+        <v>-27.93123942710306</v>
       </c>
       <c r="F24" t="n">
-        <v>3.907237961639952</v>
+        <v>3.880582033054198</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.301639103476171</v>
+        <v>-5.264653347948295</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8682385635169411</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.23334431517589</v>
+        <v>-28.19854497422258</v>
       </c>
       <c r="F25" t="n">
-        <v>4.222736275519867</v>
+        <v>4.195818500877278</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.006957551114601</v>
+        <v>-4.971189379751006</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.6895541694887033</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.19300693012053</v>
+        <v>-28.15844325061838</v>
       </c>
       <c r="F26" t="n">
-        <v>4.385892553533457</v>
+        <v>4.356434872139574</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.012155195342766</v>
+        <v>-4.975025424483631</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.4136581547776039</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.08381712442054</v>
+        <v>-28.05043175217413</v>
       </c>
       <c r="F27" t="n">
-        <v>4.337058263933819</v>
+        <v>4.309407320332094</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.823717680541803</v>
+        <v>-4.790567969746553</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.05161156639501161</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.03362123532536</v>
+        <v>-27.99914920194309</v>
       </c>
       <c r="F28" t="n">
-        <v>4.314094364749431</v>
+        <v>4.289061881716052</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.736915712701159</v>
+        <v>-4.706345185565729</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.3818096523039365</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.81823976127612</v>
+        <v>-27.78590177325706</v>
       </c>
       <c r="F29" t="n">
-        <v>4.301709046261159</v>
+        <v>4.277383547581231</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.615995203654977</v>
+        <v>-4.586838645226453</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.8667520090544345</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.67168452326584</v>
+        <v>-27.64028918105138</v>
       </c>
       <c r="F30" t="n">
-        <v>4.202521759932242</v>
+        <v>4.180395768129725</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.569425882446957</v>
+        <v>-4.54046570856106</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.378579426373046</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.22595707301928</v>
+        <v>-27.19581859187763</v>
       </c>
       <c r="F31" t="n">
-        <v>4.056280737190161</v>
+        <v>4.035385421854767</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.657969126565551</v>
+        <v>-4.632033274636091</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.896910111931707</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.848532166698</v>
+        <v>-26.81976837735473</v>
       </c>
       <c r="F32" t="n">
-        <v>3.969347846321101</v>
+        <v>3.949604653635778</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.737819081597238</v>
+        <v>-4.712184352633138</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.3953631148569</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.42883221450079</v>
+        <v>-26.4000946097632</v>
       </c>
       <c r="F33" t="n">
-        <v>3.835753988124128</v>
+        <v>3.81642974912974</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.6689666609526</v>
+        <v>-4.649943544923572</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.859047820573046</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.94166762576016</v>
+        <v>-25.91387266682717</v>
       </c>
       <c r="F34" t="n">
-        <v>3.705014251946651</v>
+        <v>3.687208720081904</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.486892005332717</v>
+        <v>-4.470932488168653</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.270566799010845</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.53346271545798</v>
+        <v>-25.50726501747169</v>
       </c>
       <c r="F35" t="n">
-        <v>3.466079725085151</v>
+        <v>3.447829054923785</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.490885157699442</v>
+        <v>-4.477779762554875</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.622517126079399</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.84458501683488</v>
+        <v>-24.81821711891165</v>
       </c>
       <c r="F36" t="n">
-        <v>3.246705098669189</v>
+        <v>3.231439473555736</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.759316642863352</v>
+        <v>-4.747651401031375</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.912993375586767</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.36479139459415</v>
+        <v>-24.33991601919487</v>
       </c>
       <c r="F37" t="n">
-        <v>3.116829454479266</v>
+        <v>3.10077829119531</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.751461261158317</v>
+        <v>-4.742375202986159</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.142885396753173</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.94884893331251</v>
+        <v>-23.92524351128888</v>
       </c>
       <c r="F38" t="n">
-        <v>3.04359111238265</v>
+        <v>3.02803745660668</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.896222853679282</v>
+        <v>-4.885984672857052</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.324281520383309</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.44874914936426</v>
+        <v>-23.42586380399692</v>
       </c>
       <c r="F39" t="n">
-        <v>3.015625953512723</v>
+        <v>2.999679528651501</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.766111548038208</v>
+        <v>-4.75778484343087</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.463991803369122</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.06518395301021</v>
+        <v>-23.04303177660201</v>
       </c>
       <c r="F40" t="n">
-        <v>3.10737681182754</v>
+        <v>3.088157311255886</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.750950661347489</v>
+        <v>-4.744705632891987</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.579167699038832</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.53448745732084</v>
+        <v>-22.51280660381494</v>
       </c>
       <c r="F41" t="n">
-        <v>3.123061390631928</v>
+        <v>3.10593665851495</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.678903718809471</v>
+        <v>-4.672763428776701</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.680961878234852</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.85728809283256</v>
+        <v>-21.83738779251314</v>
       </c>
       <c r="F42" t="n">
-        <v>3.217640186360557</v>
+        <v>3.2014319154425</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.706646308531089</v>
+        <v>-4.699995418687491</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.779949548257361</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.19403203087072</v>
+        <v>-21.17448522272802</v>
       </c>
       <c r="F43" t="n">
-        <v>3.336020788655444</v>
+        <v>3.319603040891919</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.750937569044647</v>
+        <v>-4.742767972071411</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.886605958986825</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.90419463056059</v>
+        <v>-20.88574757585659</v>
       </c>
       <c r="F44" t="n">
-        <v>3.242175161885951</v>
+        <v>3.227066644406599</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.801827350190437</v>
+        <v>-4.79463967593033</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.00309771394407</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.41713478024269</v>
+        <v>-20.40015406345698</v>
       </c>
       <c r="F45" t="n">
-        <v>3.369851299198464</v>
+        <v>3.353224074589472</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.74920938506954</v>
+        <v>-4.743121464248137</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.1348471635091</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.08970937847397</v>
+        <v>-20.07198240042627</v>
       </c>
       <c r="F46" t="n">
-        <v>3.397764088857024</v>
+        <v>3.381555817938967</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.722553456483785</v>
+        <v>-4.720393226514901</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.278277738637686</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.545331426315</v>
+        <v>-19.52950283217935</v>
       </c>
       <c r="F47" t="n">
-        <v>3.405148147659757</v>
+        <v>3.389673045700837</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.9920846950864</v>
+        <v>-4.991207510796005</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.433946086441906</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.07002846394897</v>
+        <v>-19.05478902344121</v>
       </c>
       <c r="F48" t="n">
-        <v>3.334135497046236</v>
+        <v>3.319786333131704</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.107231498579381</v>
+        <v>-5.10669471416287</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.599884761999389</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.68452560677435</v>
+        <v>-18.66670698260676</v>
       </c>
       <c r="F49" t="n">
-        <v>3.353014597744004</v>
+        <v>3.338979649097674</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.396191714599117</v>
+        <v>-5.39454208444106</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.772327619071638</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.16951368988937</v>
+        <v>-18.15254606540649</v>
       </c>
       <c r="F50" t="n">
-        <v>3.495851621747236</v>
+        <v>3.479067289504143</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.309049346884589</v>
+        <v>-5.312793745497322</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.953523086315887</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.50514478218598</v>
+        <v>-17.4873916195326</v>
       </c>
       <c r="F51" t="n">
-        <v>3.513657153611983</v>
+        <v>3.495642144901768</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.521851637274004</v>
+        <v>-5.525713866612313</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.139997969507611</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.11262445068819</v>
+        <v>-17.09538188784564</v>
       </c>
       <c r="F52" t="n">
-        <v>3.341598109666019</v>
+        <v>3.325180361902495</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.816114235944639</v>
+        <v>-5.815446528499711</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.335821798144087</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.72323317956958</v>
+        <v>-16.70495632480253</v>
       </c>
       <c r="F53" t="n">
-        <v>3.375559543237457</v>
+        <v>3.360215364306954</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.845729024972623</v>
+        <v>-5.84593850181809</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.539252894875771</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.52789602117102</v>
+        <v>-16.50719709037826</v>
       </c>
       <c r="F54" t="n">
-        <v>3.110126195424302</v>
+        <v>3.095436631635886</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.021506282925637</v>
+        <v>-6.02349631295758</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.751183007202765</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.2385954052774</v>
+        <v>-16.21643013656636</v>
       </c>
       <c r="F55" t="n">
-        <v>2.963047265300352</v>
+        <v>2.947938747821</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.162654399862286</v>
+        <v>-6.166843936771638</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.970089387526565</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.91088197284616</v>
+        <v>-15.88633390501792</v>
       </c>
       <c r="F56" t="n">
-        <v>2.909368823649275</v>
+        <v>2.89423412156424</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.475180760997129</v>
+        <v>-6.475861560744899</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.189060406050582</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.36409503696431</v>
+        <v>-15.3397433536787</v>
       </c>
       <c r="F57" t="n">
-        <v>2.947598347947115</v>
+        <v>2.929976108322152</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.732470696442729</v>
+        <v>-6.73345261915586</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.405582756668798</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.16310200373813</v>
+        <v>-15.13727089023141</v>
       </c>
       <c r="F58" t="n">
-        <v>2.789836098704316</v>
+        <v>2.771559243937266</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.708734351390681</v>
+        <v>-6.709127120475932</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.609432582759347</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.8192981311144</v>
+        <v>-14.79249818719739</v>
       </c>
       <c r="F59" t="n">
-        <v>2.917433682199778</v>
+        <v>2.896852582132585</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.818159818541827</v>
+        <v>-6.81939049500895</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.795028249696025</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.76497816662408</v>
+        <v>-14.73641076182344</v>
       </c>
       <c r="F60" t="n">
-        <v>2.736367133898706</v>
+        <v>2.715786033831513</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823710954946719</v>
+        <v>-6.823632401129668</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.955775459721657</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.42044112504122</v>
+        <v>-14.39235813544572</v>
       </c>
       <c r="F61" t="n">
-        <v>2.62254265299274</v>
+        <v>2.601699706868712</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.232845418750658</v>
+        <v>-7.230370973513573</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.082783340812304</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.21609646228756</v>
+        <v>-14.18506770455267</v>
       </c>
       <c r="F62" t="n">
-        <v>2.577086177526267</v>
+        <v>2.555248216386268</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.176456870411345</v>
+        <v>-7.17695437791933</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.173662819421981</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.89733816500005</v>
+        <v>-13.86606065351117</v>
       </c>
       <c r="F63" t="n">
-        <v>2.504581004388788</v>
+        <v>2.482847781671523</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.379518487486516</v>
+        <v>-7.37750227284889</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.221188882359774</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.71133581852765</v>
+        <v>-13.67830393845798</v>
       </c>
       <c r="F64" t="n">
-        <v>2.416784021532173</v>
+        <v>2.394212891433038</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.392126375123098</v>
+        <v>-7.395333989319321</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.22639036124967</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.5222436885846</v>
+        <v>-13.48851791646432</v>
       </c>
       <c r="F65" t="n">
-        <v>2.170203589811104</v>
+        <v>2.152817011637292</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.742096722385277</v>
+        <v>-7.74174323020855</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.188132612226104</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.30722879901494</v>
+        <v>-13.2728615040554</v>
       </c>
       <c r="F66" t="n">
-        <v>2.103773245192186</v>
+        <v>2.086308113201324</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.784175383718585</v>
+        <v>-7.786217782961894</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.108699649681617</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.13776203103163</v>
+        <v>-13.10305433619822</v>
       </c>
       <c r="F67" t="n">
-        <v>2.384550771935844</v>
+        <v>2.360068165621816</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.865125092188977</v>
+        <v>-7.863632569665021</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.994465840299231</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.08896701834052</v>
+        <v>-13.05298937013146</v>
       </c>
       <c r="F68" t="n">
-        <v>2.090209619448158</v>
+        <v>2.070466426762835</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.762311237972902</v>
+        <v>-7.76434054491337</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.847972299413202</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.94889247023689</v>
+        <v>-12.912652975971</v>
       </c>
       <c r="F69" t="n">
-        <v>2.153393072962328</v>
+        <v>2.128360589928948</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.834633118870597</v>
+        <v>-7.836662425811065</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.677752455106344</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.9281542625356</v>
+        <v>-12.88949269224398</v>
       </c>
       <c r="F70" t="n">
-        <v>2.150774612393983</v>
+        <v>2.127234651884559</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.742764429830205</v>
+        <v>-7.745814936392327</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.486089871790342</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.6212575916227</v>
+        <v>-12.58380051319252</v>
       </c>
       <c r="F71" t="n">
-        <v>2.106653551817366</v>
+        <v>2.082589899194274</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.44774247759475</v>
+        <v>-7.455362197848634</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.278884827270394</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.55305978612015</v>
+        <v>-12.51595619986669</v>
       </c>
       <c r="F72" t="n">
-        <v>2.114325641282618</v>
+        <v>2.091597403549381</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.514212099122194</v>
+        <v>-7.519907250858345</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.059859244213269</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.2300203058034</v>
+        <v>-12.20189803929937</v>
       </c>
       <c r="F73" t="n">
-        <v>2.090497650110676</v>
+        <v>2.067690858560389</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.244301183737169</v>
+        <v>-7.254657195284974</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.829205652638452</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.43203453865123</v>
+        <v>-12.40372897990742</v>
       </c>
       <c r="F74" t="n">
-        <v>2.113749579957582</v>
+        <v>2.091675957366431</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.195165771172171</v>
+        <v>-7.203544844990875</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.593886034724203</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.56493450479759</v>
+        <v>-12.53649802302536</v>
       </c>
       <c r="F75" t="n">
-        <v>2.045748158997656</v>
+        <v>2.023648351800823</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.12462444346095</v>
+        <v>-7.131196779487497</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.351715562731892</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.82155673279827</v>
+        <v>-12.7955554193546</v>
       </c>
       <c r="F76" t="n">
-        <v>2.024931397479312</v>
+        <v>2.004245558989385</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.774025665662369</v>
+        <v>-6.785285046106253</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.10772517332309</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.39620408912731</v>
+        <v>-13.37135489833371</v>
       </c>
       <c r="F77" t="n">
-        <v>2.018332876847082</v>
+        <v>1.997070977032119</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.719993731834565</v>
+        <v>-6.727705098208341</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.862494615810199</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.88742729174887</v>
+        <v>-13.86374331590819</v>
       </c>
       <c r="F78" t="n">
-        <v>2.069445227141181</v>
+        <v>2.047476342972764</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.739514355371578</v>
+        <v>-6.742499400419492</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.618144677612952</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.37579637235093</v>
+        <v>-14.35232187335572</v>
       </c>
       <c r="F79" t="n">
-        <v>2.114063795225783</v>
+        <v>2.092540049353985</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.644948651945791</v>
+        <v>-6.645498528665144</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.378607021319072</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.92394490772832</v>
+        <v>-14.90078462400131</v>
       </c>
       <c r="F80" t="n">
-        <v>2.00094629867327</v>
+        <v>1.982459967060753</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.291116075345302</v>
+        <v>-6.294297504935842</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.145717951749539</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.69570997564239</v>
+        <v>-15.67292936869779</v>
       </c>
       <c r="F81" t="n">
-        <v>2.100552538693122</v>
+        <v>2.080940269036216</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.234374034829262</v>
+        <v>-6.235774911233326</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.92919655744091</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.42415261345318</v>
+        <v>-16.40215754467908</v>
       </c>
       <c r="F82" t="n">
-        <v>2.070466426762835</v>
+        <v>2.052765633320822</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.13332764149682</v>
+        <v>-6.135212933106028</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.733780614406939</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.30093104246074</v>
+        <v>-17.27868721993265</v>
       </c>
       <c r="F83" t="n">
-        <v>2.052111018178735</v>
+        <v>2.033650871171901</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.837179751216977</v>
+        <v>-5.840151703962048</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.572245576147377</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.35425917528897</v>
+        <v>-18.33253904487454</v>
       </c>
       <c r="F84" t="n">
-        <v>2.062584860452116</v>
+        <v>2.046350404928376</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.727859022488563</v>
+        <v>-5.728461268419283</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.452339914751017</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.15315149469109</v>
+        <v>-19.13183722566476</v>
       </c>
       <c r="F85" t="n">
-        <v>2.089895404179957</v>
+        <v>2.072587379823195</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.592235857351123</v>
+        <v>-5.590651688707275</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.386901006758118</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.30316628400547</v>
+        <v>-20.27995363106709</v>
       </c>
       <c r="F86" t="n">
-        <v>2.07740534726895</v>
+        <v>2.060332984363339</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.25293573690495</v>
+        <v>-5.252621521636749</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.383483584685061</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.3692986890129</v>
+        <v>-21.34587655922906</v>
       </c>
       <c r="F87" t="n">
-        <v>1.89513430710644</v>
+        <v>1.884267695747807</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.889585056138527</v>
+        <v>-4.892046409072771</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.451907902586106</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.71072294587332</v>
+        <v>-22.68792924662587</v>
       </c>
       <c r="F88" t="n">
-        <v>1.990498641005572</v>
+        <v>1.978322799362767</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.661936094326594</v>
+        <v>-4.661870632812385</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.599338831781547</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.0889758506275</v>
+        <v>-24.06886607346261</v>
       </c>
       <c r="F89" t="n">
-        <v>1.859051920474643</v>
+        <v>1.844624202743061</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.275922637341142</v>
+        <v>-4.277271144533841</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.827927946626712</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.55747399886971</v>
+        <v>-25.53797955993838</v>
       </c>
       <c r="F90" t="n">
-        <v>1.642793262135011</v>
+        <v>1.630381759041055</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.164729709306363</v>
+        <v>-4.163590678959133</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.14224068467781</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.2005187285978</v>
+        <v>-27.18135159723752</v>
       </c>
       <c r="F91" t="n">
-        <v>1.436668046194876</v>
+        <v>1.425513404173726</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.06147071679367</v>
+        <v>-4.062282439569857</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.534817418174137</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.79088003169079</v>
+        <v>-28.77505143755515</v>
       </c>
       <c r="F92" t="n">
-        <v>1.312683938283731</v>
+        <v>1.302720695821177</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.790892093963717</v>
+        <v>-3.792450078001882</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.004556702012139</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.63841343950381</v>
+        <v>-30.62398572177223</v>
       </c>
       <c r="F93" t="n">
-        <v>1.173368743744923</v>
+        <v>1.163903008790355</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.780012390302243</v>
+        <v>-3.783154542984257</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.533862125031678</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.71388383979128</v>
+        <v>-32.7014330597888</v>
       </c>
       <c r="F94" t="n">
-        <v>1.058942016908238</v>
+        <v>1.050170174004281</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.772615239196667</v>
+        <v>-3.777118991374221</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.111756525286647</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.74257544202526</v>
+        <v>-34.73203613823767</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6549528281210962</v>
+        <v>0.6459715083716722</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.757310337174689</v>
+        <v>-3.762390150677279</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.723544268549479</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.7114221279697</v>
+        <v>-36.70238843900891</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4332870487078321</v>
+        <v>0.4225251757719333</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.971749165419321</v>
+        <v>-3.97568994857468</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.344666043154561</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.79833520094084</v>
+        <v>-38.7907285729898</v>
       </c>
       <c r="F97" t="n">
-        <v>0.04946000629694901</v>
+        <v>0.04040013273047457</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.965360121632558</v>
+        <v>-3.972102657596047</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.975534511794654</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.01655097911165</v>
+        <v>-41.01278039589323</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1582231936813516</v>
+        <v>-0.1689457897087253</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.165305770631399</v>
+        <v>-4.172244691137514</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.583658981179585</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.39390369832363</v>
+        <v>-43.39153399150928</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.07914568451732616</v>
+        <v>-0.08973735751628255</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.49457718710081</v>
+        <v>-4.501214984641565</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-10.19532566586384</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.7961317929349</v>
+        <v>-45.79623653135764</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3523820448241492</v>
+        <v>-0.3590983961819547</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.67563064309904</v>
+        <v>-4.684193009157529</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-10.76191681324259</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19462858123627</v>
+        <v>-48.19486424268742</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.2851399774290441</v>
+        <v>-0.2946842662006624</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.949914387633201</v>
+        <v>-4.960990475837301</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-11.35999379825065</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.40797402274996</v>
+        <v>-50.41057939101546</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.43263786124393</v>
+        <v>-0.4414620733592534</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.309677777420991</v>
+        <v>-5.31952318915797</v>
       </c>
     </row>
   </sheetData>
